--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="325" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A04AE02-D582-468E-BFD0-2052CF42E67E}"/>
+  <xr:revisionPtr revIDLastSave="327" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F065B9-26E9-4262-BC76-0AB8F1BAC6BF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="116">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -218,12 +218,6 @@
 redirected from HTTP to HTTPS</t>
   </si>
   <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>TC ID</t>
   </si>
   <si>
@@ -371,9 +365,6 @@
     <t>Verify mismatch between password and confirm password</t>
   </si>
   <si>
-    <t>1. Enter different values in password and confirm password2. Click Register</t>
-  </si>
-  <si>
     <t>Password ≠ Confirm Password</t>
   </si>
   <si>
@@ -382,6 +373,36 @@
   <si>
     <t>1. Enter different values in password and confirm password
 2. Click Register</t>
+  </si>
+  <si>
+    <t>Validate phone number</t>
+  </si>
+  <si>
+    <t>Send OTP to registered phone number</t>
+  </si>
+  <si>
+    <t>FR_REG_07</t>
+  </si>
+  <si>
+    <t>Verify OTP</t>
+  </si>
+  <si>
+    <t>FR_REG_08</t>
+  </si>
+  <si>
+    <t>Handle invalid OTP</t>
+  </si>
+  <si>
+    <t>FR_REG_09</t>
+  </si>
+  <si>
+    <t>Handle OTP expiry</t>
+  </si>
+  <si>
+    <t>FR_REG_10</t>
+  </si>
+  <si>
+    <t>Resend OTP</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4571448-FDFE-4F01-A516-0ABB06952D87}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+    <sheetView topLeftCell="E4" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1107,25 +1128,25 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
@@ -1145,230 +1166,230 @@
     </row>
     <row r="2" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="F2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="I2" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="E3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="F3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="I3" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="J3" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="E4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="F4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="I4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="J4" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="I5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="J5" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
         <v>94</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>95</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>96</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
         <v>97</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" t="s">
-        <v>100</v>
-      </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
         <v>102</v>
       </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" t="s">
         <v>103</v>
       </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
         <v>104</v>
       </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" t="s">
-        <v>107</v>
-      </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1402,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F819213-0935-4CCE-97BE-DCD2DE2E7E49}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,136 +1478,114 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="E11" s="7"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="E12" s="7"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="E13" s="7"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="E14" s="7"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>105</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="327" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F065B9-26E9-4262-BC76-0AB8F1BAC6BF}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69738ED4-5989-4500-A710-5B582A9DC289}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -373,36 +373,6 @@
   <si>
     <t>1. Enter different values in password and confirm password
 2. Click Register</t>
-  </si>
-  <si>
-    <t>Validate phone number</t>
-  </si>
-  <si>
-    <t>Send OTP to registered phone number</t>
-  </si>
-  <si>
-    <t>FR_REG_07</t>
-  </si>
-  <si>
-    <t>Verify OTP</t>
-  </si>
-  <si>
-    <t>FR_REG_08</t>
-  </si>
-  <si>
-    <t>Handle invalid OTP</t>
-  </si>
-  <si>
-    <t>FR_REG_09</t>
-  </si>
-  <si>
-    <t>Handle OTP expiry</t>
-  </si>
-  <si>
-    <t>FR_REG_10</t>
-  </si>
-  <si>
-    <t>Resend OTP</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4571448-FDFE-4F01-A516-0ABB06952D87}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1425,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F819213-0935-4CCE-97BE-DCD2DE2E7E49}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H27"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,55 +1508,31 @@
       <c r="A21" s="7"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="H23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="H24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="H25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="H26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="H27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69738ED4-5989-4500-A710-5B582A9DC289}"/>
+  <xr:revisionPtr revIDLastSave="463" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98348490-6BF4-463B-AF5C-D6C8665B96E9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="144">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -242,29 +242,18 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Verify user can register with valid details</t>
-  </si>
-  <si>
     <t>Registration page is accessible</t>
   </si>
   <si>
     <t>Steps</t>
   </si>
   <si>
-    <t>Valid user details</t>
-  </si>
-  <si>
     <t>User account created successfully</t>
   </si>
   <si>
     <t>—</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open registration page
- 2. Enter valid name, email, password, confirm password
- 3.Click Register   </t>
-  </si>
-  <si>
     <t>TC_REG_02</t>
   </si>
   <si>
@@ -296,9 +285,6 @@
   </si>
   <si>
     <t>abc@</t>
-  </si>
-  <si>
-    <t>Error message for invalid email displayed</t>
   </si>
   <si>
     <t>TC_REG_04</t>
@@ -323,10 +309,6 @@
 2. Click Register</t>
   </si>
   <si>
-    <t>1. Enter invalid email format
-2. Click Register</t>
-  </si>
-  <si>
     <t>1. Enter password shorter than minimum length
 2. Submit registration</t>
   </si>
@@ -373,13 +355,160 @@
   <si>
     <t>1. Enter different values in password and confirm password
 2. Click Register</t>
+  </si>
+  <si>
+    <t>FR_REG_07</t>
+  </si>
+  <si>
+    <t>FR_REG_08</t>
+  </si>
+  <si>
+    <t>FR_REG_09</t>
+  </si>
+  <si>
+    <t>FR_REG_10</t>
+  </si>
+  <si>
+    <t>TC_REG_07</t>
+  </si>
+  <si>
+    <t>TC_REG_08</t>
+  </si>
+  <si>
+    <t>TC_REG_09</t>
+  </si>
+  <si>
+    <t>TC_REG_10</t>
+  </si>
+  <si>
+    <t>TS_REG_06</t>
+  </si>
+  <si>
+    <t>Verify user can successfully register using valid email and password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open registration page
+ 2. Enter valid name
+3.Enter Valid email, 
+4. Enter valid password,  and confirm password
+ 3.Click Register   </t>
+  </si>
+  <si>
+    <t>Valid user name,email,password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email required validation displayed </t>
+  </si>
+  <si>
+    <t>Valid user name,password and blank email</t>
+  </si>
+  <si>
+    <t>1. Enter invalid
+2.click Register</t>
+  </si>
+  <si>
+    <t>1. Enter Username,Paswword
+2. leave email blank
+3.click Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid email error message displayed </t>
+  </si>
+  <si>
+    <t>TC_REG_11</t>
+  </si>
+  <si>
+    <t>Verify system validates phone number format and length during registration.</t>
+  </si>
+  <si>
+    <t>1. Enter valid phone number
+2. Continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone number accepted </t>
+  </si>
+  <si>
+    <t>Phone number accepted sucessfully</t>
+  </si>
+  <si>
+    <t>TS_REG_07</t>
+  </si>
+  <si>
+    <t>TS_REG_08</t>
+  </si>
+  <si>
+    <t>Verify system validatesinvalid  phone number format and length during registration.</t>
+  </si>
+  <si>
+    <t>1. Enter invalid phone number
+2. Continue</t>
+  </si>
+  <si>
+    <t>Phone number invalid</t>
+  </si>
+  <si>
+    <t>Verify OTP is successfully sent to a valid phone number during registration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click Send OTP |
+Valid phone number |
+OTP sent successfully
+</t>
+  </si>
+  <si>
+    <t>Verify user is able to complete registration by entering a valid OTP.</t>
+  </si>
+  <si>
+    <t>OTP Sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter incorrect OTP |
+Valid phone number |
+OTP sent successfully
+</t>
+  </si>
+  <si>
+    <t>Invalid OTP</t>
+  </si>
+  <si>
+    <t>Invalid OTP error displayed |</t>
+  </si>
+  <si>
+    <t>TS_REG_09</t>
+  </si>
+  <si>
+    <t>TS_REG_10</t>
+  </si>
+  <si>
+    <t>Verify system displays error message when an invalid OTP is entered.</t>
+  </si>
+  <si>
+    <t>Verify system displays appropriate message when an expired OTP is entered.</t>
+  </si>
+  <si>
+    <t>Verify system allows user to resend OTP and generates a new OTP.</t>
+  </si>
+  <si>
+    <t>1. Enter Incorrect OTP
+2.Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Wait Until OTP expire 
+2.Enter OTP
+</t>
+  </si>
+  <si>
+    <t>OTP Expried</t>
+  </si>
+  <si>
+    <t>OTP expired message displayed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +520,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -425,10 +568,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -445,9 +589,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -470,8 +611,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,11 +623,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1075,319 +1226,499 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4571448-FDFE-4F01-A516-0ABB06952D87}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="75.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="36" style="8" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="13" customWidth="1"/>
     <col min="8" max="8" width="40.140625" customWidth="1"/>
     <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="E4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="D5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="C6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E9" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1234</v>
+      </c>
+      <c r="I10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C12" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="I7" t="s">
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="J7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{2C7AC3EF-6D4E-4D11-A6B5-73933FF8AC6F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1396,7 +1727,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:I27"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,110 +1737,110 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="12"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="12"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="2"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="2"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="2"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="2"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="2"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="2"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="2"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="2"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>

--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="534" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0EF9FF6-5FC4-4FAE-99C4-FA45AF23FDF9}"/>
+  <xr:revisionPtr revIDLastSave="542" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1076229F-10BB-48CA-A258-21C9E57D3DDE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="205">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -694,6 +694,14 @@
   <si>
     <t>1.Enter Email.
 2.Enter Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter Email.
+2.Enter Password
+3.Clik login </t>
+  </si>
+  <si>
+    <t>Home Page to be displayed</t>
   </si>
 </sst>
 </file>
@@ -764,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -779,9 +787,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1435,92 +1440,92 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="36" style="9" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="75.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="36" style="8" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="13" customWidth="1"/>
     <col min="8" max="8" width="40.140625" customWidth="1"/>
     <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1528,19 +1533,19 @@
       <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1562,155 +1567,155 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1718,19 +1723,19 @@
       <c r="A8" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>91</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1756,19 +1761,19 @@
       <c r="A9" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1785,25 +1790,25 @@
       <c r="A10" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>1234</v>
       </c>
       <c r="I10" t="s">
@@ -1814,19 +1819,19 @@
       <c r="A11" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1837,88 +1842,88 @@
       <c r="A12" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D14" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>104</v>
       </c>
       <c r="D15" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1940,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F819213-0935-4CCE-97BE-DCD2DE2E7E49}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G31" sqref="G30:G31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,417 +1966,321 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="2"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C3" t="s">
         <v>146</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D3" t="s">
         <v>158</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E3" t="s">
         <v>170</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F3" t="s">
         <v>194</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C4" t="s">
         <v>147</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D4" t="s">
         <v>159</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E4" t="s">
         <v>171</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F4" t="s">
         <v>194</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C5" t="s">
         <v>148</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D5" t="s">
         <v>160</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E5" t="s">
         <v>172</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F5" t="s">
         <v>194</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C6" t="s">
         <v>149</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D6" t="s">
         <v>161</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E6" t="s">
         <v>173</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F6" t="s">
         <v>194</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C7" t="s">
         <v>150</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D7" t="s">
         <v>162</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E7" t="s">
         <v>174</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F7" t="s">
         <v>200</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C8" t="s">
         <v>151</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D8" t="s">
         <v>163</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E8" t="s">
         <v>175</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F8" t="s">
         <v>200</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C9" t="s">
         <v>152</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D9" t="s">
         <v>164</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E9" t="s">
         <v>176</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F9" t="s">
         <v>200</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C10" t="s">
         <v>153</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D10" t="s">
         <v>165</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E10" t="s">
         <v>177</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C30" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" t="s">
-        <v>178</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C31" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" t="s">
-        <v>179</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" t="s">
-        <v>180</v>
-      </c>
-      <c r="F32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C14" t="s">
         <v>157</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D14" t="s">
         <v>169</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E14" t="s">
         <v>181</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F14" t="s">
         <v>194</v>
       </c>
     </row>

--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="542" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1076229F-10BB-48CA-A258-21C9E57D3DDE}"/>
+  <xr:revisionPtr revIDLastSave="673" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E39B122F-25F8-4306-9A41-93E79285B0F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
     <sheet name="User Registration_TestCases" sheetId="2" r:id="rId2"/>
-    <sheet name="Login_TestCases" sheetId="3" r:id="rId3"/>
+    <sheet name="Login&amp;Logout_TestCases" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="240">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -692,16 +693,146 @@
 3.click login</t>
   </si>
   <si>
-    <t>1.Enter Email.
-2.Enter Password</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Enter Email.
 2.Enter Password
 3.Clik login </t>
   </si>
   <si>
     <t>Home Page to be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter Email.
+2.Click on forgot Password
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reset Password page to  be-redirected </t>
+  </si>
+  <si>
+    <t>Valid email, password</t>
+  </si>
+  <si>
+    <t>Email ,password</t>
+  </si>
+  <si>
+    <t>Blank data</t>
+  </si>
+  <si>
+    <t>User should be able login to website successfully</t>
+  </si>
+  <si>
+    <t>Login Successful</t>
+  </si>
+  <si>
+    <t>1.Open the browser
+2.Ensure the user is logged out (or open a new incognito/private window)
+3.Directly enter a protected page URL in the address bar
+Press Enter</t>
+  </si>
+  <si>
+    <t>User should be redirected to the login page</t>
+  </si>
+  <si>
+    <t>Proctected URL</t>
+  </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Open the application
+2.Ensure the user is logged in
+3.Click on Profile / Account / Logout option
+4.Confirm logout (if confirmation popup is shown)
+5.Observe the system behavior
+</t>
+  </si>
+  <si>
+    <t>User should be logged out successfully and
+ redirected to the login page or home page</t>
+  </si>
+  <si>
+    <t>1Open the application
+2.Ensure the user is logged in
+3.Click on Profile / Account / Logout option
+4.Confirm logout (if confirmation popup is shown)
+5.Observe the system behavior</t>
+  </si>
+  <si>
+    <t>1. Login to application
+2. Do not perform any activity
+3. Wait for configured session timeout duration</t>
+  </si>
+  <si>
+    <t>Idle time = configured timeout</t>
+  </si>
+  <si>
+    <t>User should be logged out automatically 
+and redirected to login page |</t>
+  </si>
+  <si>
+    <t>"Invalid credentials" or
+ "Incorrect email/password"</t>
+  </si>
+  <si>
+    <t>Error messages "Email is required" and
+ "Password is required" are displayed.</t>
+  </si>
+  <si>
+    <t>Invalid Email/Password
+ displayed on UI</t>
+  </si>
+  <si>
+    <t>Email and Password
+Required</t>
+  </si>
+  <si>
+    <t>"Invalid credentials" or
+ "password incorrect "</t>
+  </si>
+  <si>
+    <t>"Invalid credentials" or "password incorrect " message displayed when clicked on Login</t>
+  </si>
+  <si>
+    <t>"Email and Password required "</t>
+  </si>
+  <si>
+    <t>"Email and Password required "diplayed when clicked on login</t>
+  </si>
+  <si>
+    <t>"Password should be masked and clicked on eye should show the password"</t>
+  </si>
+  <si>
+    <t>1.Enter Email.
+2.Enter Password
+3.Clik outside</t>
+  </si>
+  <si>
+    <t>"Password is  masked and clicked on eye password is  showen"</t>
+  </si>
+  <si>
+    <t>"Re-directed to password reset page "</t>
+  </si>
+  <si>
+    <t>" Re-directed to Reset password  page"</t>
+  </si>
+  <si>
+    <t>"Login page redirected "</t>
+  </si>
+  <si>
+    <t>User is  not logged IN</t>
+  </si>
+  <si>
+    <t>"user logged out and directed to login page"</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Account created successfully </t>
+  </si>
+  <si>
+    <t>Phone number should be valid</t>
   </si>
 </sst>
 </file>
@@ -772,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -810,7 +941,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -839,8 +969,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -857,6 +997,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1178,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD6D3BF-43B2-46AE-8869-8724C02B6152}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1416,9 @@
       <c r="K2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
@@ -1310,7 +1456,9 @@
       <c r="K3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1346,6 +1494,9 @@
       <c r="K4" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1381,6 +1532,9 @@
       <c r="K5" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1415,6 +1569,9 @@
       </c>
       <c r="K6" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1434,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4571448-FDFE-4F01-A516-0ABB06952D87}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,52 +1603,52 @@
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="75.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="36" style="8" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
     <col min="8" max="8" width="40.140625" customWidth="1"/>
     <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
@@ -1504,7 +1661,7 @@
       <c r="D2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>110</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1520,10 +1677,10 @@
         <v>66</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>67</v>
@@ -1567,11 +1724,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1583,29 +1740,29 @@
       <c r="E4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -1621,29 +1778,29 @@
       <c r="E5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -1659,29 +1816,29 @@
       <c r="E6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1770,11 +1927,11 @@
       <c r="D9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>119</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>120</v>
@@ -1799,7 +1956,7 @@
       <c r="D10" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1828,7 +1985,7 @@
       <c r="D11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -1851,7 +2008,7 @@
       <c r="D12" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>130</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -1874,7 +2031,7 @@
       <c r="D13" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -1897,7 +2054,7 @@
       <c r="D14" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -1920,7 +2077,7 @@
       <c r="D15" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>138</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -1947,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F819213-0935-4CCE-97BE-DCD2DE2E7E49}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,8 +2117,8 @@
     <col min="6" max="6" width="47" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="37.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19" style="16" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
@@ -1970,46 +2127,46 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2030,11 +2187,24 @@
       <c r="G3" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2055,11 +2225,24 @@
       <c r="G4" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2080,11 +2263,24 @@
       <c r="G5" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2105,11 +2301,24 @@
       <c r="G6" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2130,11 +2339,24 @@
       <c r="G7" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="H7" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2155,11 +2377,24 @@
       <c r="G8" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="H8" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2178,11 +2413,26 @@
         <v>200</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2198,14 +2448,29 @@
         <v>177</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2221,11 +2486,29 @@
         <v>178</v>
       </c>
       <c r="F11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2241,11 +2524,29 @@
         <v>179</v>
       </c>
       <c r="F12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2261,11 +2562,26 @@
         <v>180</v>
       </c>
       <c r="F13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2281,11 +2597,50 @@
         <v>181</v>
       </c>
       <c r="F14" t="s">
-        <v>194</v>
+        <v>214</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB0A0B2-B5F3-4A49-A089-B3D37B5BF24D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="673" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E39B122F-25F8-4306-9A41-93E79285B0F0}"/>
+  <xr:revisionPtr revIDLastSave="723" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11FE0961-E5B9-4B37-B357-A2E04D78B0C9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="251">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>User account created successfully</t>
-  </si>
-  <si>
-    <t>—</t>
   </si>
   <si>
     <t>TC_REG_02</t>
@@ -833,6 +830,46 @@
   </si>
   <si>
     <t>Phone number should be valid</t>
+  </si>
+  <si>
+    <t>"Password not matched"</t>
+  </si>
+  <si>
+    <t>"Enter Mandatory Fields message dispalyed"</t>
+  </si>
+  <si>
+    <t>"Invalid Email Message displayed "</t>
+  </si>
+  <si>
+    <t>"Email required message displayed "</t>
+  </si>
+  <si>
+    <t>"Strong Password message displayed "</t>
+  </si>
+  <si>
+    <t>"Email already regitered messgae displayed"</t>
+  </si>
+  <si>
+    <t>"Valid Phone number
+ regitered"</t>
+  </si>
+  <si>
+    <t>"Phone number invalid message
+ displayed"</t>
+  </si>
+  <si>
+    <t>"OTP should be received to valid phone number"</t>
+  </si>
+  <si>
+    <t>"OTP received to registred
+ phone no"</t>
+  </si>
+  <si>
+    <t>"Invalid OTP
+ message displayed "</t>
+  </si>
+  <si>
+    <t>Phone number Registered</t>
   </si>
 </sst>
 </file>
@@ -903,7 +940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -981,6 +1018,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1417,7 +1460,7 @@
         <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1457,7 +1500,7 @@
         <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1495,7 +1538,7 @@
         <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1533,7 +1576,7 @@
         <v>51</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -1571,7 +1614,7 @@
         <v>51</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1591,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4571448-FDFE-4F01-A516-0ABB06952D87}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,12 +1648,12 @@
     <col min="6" max="6" width="36" style="8" customWidth="1"/>
     <col min="7" max="7" width="34.42578125" customWidth="1"/>
     <col min="8" max="8" width="40.140625" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
@@ -1635,7 +1678,7 @@
       <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
@@ -1662,33 +1705,33 @@
         <v>62</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K2" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>58</v>
@@ -1700,394 +1743,442 @@
         <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="I3" t="s">
-        <v>99</v>
-      </c>
       <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>67</v>
+        <v>239</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>73</v>
-      </c>
       <c r="J4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>67</v>
+        <v>240</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>67</v>
+        <v>241</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>67</v>
+        <v>242</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>67</v>
+        <v>243</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="I8" t="s">
-        <v>93</v>
-      </c>
       <c r="J8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
+        <v>244</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="E9" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" t="s">
         <v>120</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="I9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="J9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>1234</v>
       </c>
-      <c r="I10" t="s">
-        <v>127</v>
+      <c r="I10" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>129</v>
+      <c r="I11" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>133</v>
+      <c r="J12" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H13" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>133</v>
+      <c r="J13" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="I14" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>142</v>
+      <c r="K14" s="27" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="I15" t="s">
-        <v>144</v>
+      <c r="K15" s="27" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2167,455 +2258,455 @@
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" t="s">
         <v>193</v>
       </c>
-      <c r="C3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>210</v>
-      </c>
       <c r="K3" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
         <v>193</v>
       </c>
-      <c r="C4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" t="s">
-        <v>194</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
         <v>193</v>
       </c>
-      <c r="C5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" t="s">
-        <v>194</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" t="s">
         <v>193</v>
       </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" t="s">
-        <v>194</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K6" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I8" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J8" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="J8" s="25" t="s">
-        <v>226</v>
-      </c>
       <c r="K8" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>231</v>
-      </c>
       <c r="K9" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I10" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="J10" s="25" t="s">
-        <v>228</v>
-      </c>
       <c r="K10" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>212</v>
-      </c>
       <c r="J12" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="23" t="s">
-        <v>220</v>
-      </c>
       <c r="J14" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" t="s">
         <v>236</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2637,7 +2728,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="255" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="723" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11FE0961-E5B9-4B37-B357-A2E04D78B0C9}"/>
+  <xr:revisionPtr revIDLastSave="724" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54A1AFC5-327E-4AD0-AC23-6A33B094B1EA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="250">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -734,15 +734,6 @@
   </si>
   <si>
     <t>User is logged in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.Open the application
-2.Ensure the user is logged in
-3.Click on Profile / Account / Logout option
-4.Confirm logout (if confirmation popup is shown)
-5.Observe the system behavior
-</t>
   </si>
   <si>
     <t>User should be logged out successfully and
@@ -1460,7 +1451,7 @@
         <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1500,7 +1491,7 @@
         <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1538,7 +1529,7 @@
         <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1576,7 +1567,7 @@
         <v>51</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -1614,7 +1605,7 @@
         <v>51</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1634,7 +1625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4571448-FDFE-4F01-A516-0ABB06952D87}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -1720,13 +1711,13 @@
         <v>66</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1758,13 +1749,13 @@
         <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K3" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1796,13 +1787,13 @@
         <v>72</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1834,13 +1825,13 @@
         <v>116</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K5" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1872,13 +1863,13 @@
         <v>112</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K6" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1910,13 +1901,13 @@
         <v>83</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K7" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1948,13 +1939,13 @@
         <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K8" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1974,7 +1965,7 @@
         <v>118</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>119</v>
@@ -1986,13 +1977,13 @@
         <v>121</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2024,13 +2015,13 @@
         <v>126</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K10" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -2050,22 +2041,22 @@
         <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>128</v>
       </c>
       <c r="I11" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="K11" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -2085,7 +2076,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>130</v>
@@ -2097,7 +2088,7 @@
         <v>132</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K12" s="27" t="s">
         <v>51</v>
@@ -2126,7 +2117,7 @@
         <v>132</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>51</v>
@@ -2195,7 +2186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F819213-0935-4CCE-97BE-DCD2DE2E7E49}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
+    <sheetView topLeftCell="E12" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2291,7 +2282,7 @@
         <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2320,16 +2311,16 @@
         <v>206</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2358,16 +2349,16 @@
         <v>206</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2396,16 +2387,16 @@
         <v>206</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K6" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2434,16 +2425,16 @@
         <v>207</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -2472,16 +2463,16 @@
         <v>206</v>
       </c>
       <c r="I8" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="J8" s="25" t="s">
-        <v>225</v>
-      </c>
       <c r="K8" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2504,22 +2495,22 @@
         <v>199</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>206</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2548,16 +2539,16 @@
         <v>206</v>
       </c>
       <c r="I10" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="J10" s="25" t="s">
-        <v>227</v>
-      </c>
       <c r="K10" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2586,16 +2577,16 @@
         <v>206</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="135" x14ac:dyDescent="0.25">
@@ -2615,7 +2606,7 @@
         <v>178</v>
       </c>
       <c r="F12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>210</v>
@@ -2627,13 +2618,13 @@
         <v>211</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -2656,19 +2647,19 @@
         <v>213</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -2691,22 +2682,22 @@
         <v>213</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="23" t="s">
-        <v>219</v>
-      </c>
       <c r="J14" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" t="s">
         <v>235</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2719,17 +2710,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB0A0B2-B5F3-4A49-A089-B3D37B5BF24D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="255" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>214</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="724" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54A1AFC5-327E-4AD0-AC23-6A33B094B1EA}"/>
+  <xr:revisionPtr revIDLastSave="995" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{586D4C42-FF9F-4D1B-A212-ECD2197B64E1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
     <sheet name="User Registration_TestCases" sheetId="2" r:id="rId2"/>
     <sheet name="Login&amp;Logout_TestCases" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Product_Details_Test_Cases" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="332">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -861,6 +862,280 @@
   </si>
   <si>
     <t>Phone number Registered</t>
+  </si>
+  <si>
+    <t>User is on Product Details Page |</t>
+  </si>
+  <si>
+    <t>Product |</t>
+  </si>
+  <si>
+    <t>| | |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_PDP_01 </t>
+  </si>
+  <si>
+    <t>Product Details Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_PDP_01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_PDP_01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify product details are displayed correctly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open a product details page
+2. Product
+</t>
+  </si>
+  <si>
+    <t>"Product name, brand,
+ and basic details are displayed "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is on Product Details Page </t>
+  </si>
+  <si>
+    <t>"Product name, brand,
+ and basic details are displayed  when opened product details page"</t>
+  </si>
+  <si>
+    <t>Verify product images are displayed |</t>
+  </si>
+  <si>
+    <t>1. View product images |</t>
+  </si>
+  <si>
+    <t>Product images are displayed correctly |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_PDP_02 | Product Details | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR_PDP_02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_PDP_02 </t>
+  </si>
+  <si>
+    <t>TC_PDP_02</t>
+  </si>
+  <si>
+    <t>TC_PDP_03</t>
+  </si>
+  <si>
+    <t>TC_PDP_04</t>
+  </si>
+  <si>
+    <t>TC_PDP_05</t>
+  </si>
+  <si>
+    <t>TC_PDP_06</t>
+  </si>
+  <si>
+    <t>TC_PDP_07</t>
+  </si>
+  <si>
+    <t>TC_PDP_08</t>
+  </si>
+  <si>
+    <t>TC_PDP_09</t>
+  </si>
+  <si>
+    <t>TC_PDP_10</t>
+  </si>
+  <si>
+    <t>TC_PDP_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Verify product images are displayed 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. View product images 
+Product </t>
+  </si>
+  <si>
+    <t>"Product images are
+ displayed correctly "</t>
+  </si>
+  <si>
+    <t>" Product images are
+ displayed correctly "</t>
+  </si>
+  <si>
+    <t>In-stock product</t>
+  </si>
+  <si>
+    <t>Verify product image zoom functionality</t>
+  </si>
+  <si>
+    <t>1.Hover or click on product image |
+Product</t>
+  </si>
+  <si>
+    <t>"Image zoom is dispalye
+correctly "</t>
+  </si>
+  <si>
+    <t>"Image zoomed and displayed
+correctly "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR_PDP_03 </t>
+  </si>
+  <si>
+    <t>TS_PDP_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify product price is displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. View product price </t>
+  </si>
+  <si>
+    <t>"Correct product price 
+is displayed "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct product price 
+is displayed </t>
+  </si>
+  <si>
+    <t>TS_PDP_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify product availability status </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Check stock availability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock status (In stock / Out of stock) 
+is displayed </t>
+  </si>
+  <si>
+    <t>"Stock status (In stock / Out of stock) is displayed "</t>
+  </si>
+  <si>
+    <t>FR_PDP_04</t>
+  </si>
+  <si>
+    <t>FR_PDP_05</t>
+  </si>
+  <si>
+    <t>TS_PDP_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can select product quantity </t>
+  </si>
+  <si>
+    <t>\1. Select quantity from dropdown |
+Quantity</t>
+  </si>
+  <si>
+    <t>"Able to select quantity"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Quantity from dropdown should be selected" 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  NA</t>
+  </si>
+  <si>
+    <t>FR_PDP_06</t>
+  </si>
+  <si>
+    <t>TS_PDP_06</t>
+  </si>
+  <si>
+    <t>Quantity 1, 5</t>
+  </si>
+  <si>
+    <t>1. Observe Add to Cart button |</t>
+  </si>
+  <si>
+    <t>"Add to Cart button
+ is visible "</t>
+  </si>
+  <si>
+    <t>"Cart button visbile"</t>
+  </si>
+  <si>
+    <t>Verify Add to Cart button enabled for in-
+stock product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Add to Cart button is displayed </t>
+  </si>
+  <si>
+    <t>"Product is added 
+to cart successfully "</t>
+  </si>
+  <si>
+    <t>"Products can added to cart"</t>
+  </si>
+  <si>
+    <t>1. Click Add to Cart 
+Product</t>
+  </si>
+  <si>
+    <t>Verify Add to Cart is disabled for out-of-stock
+ product |</t>
+  </si>
+  <si>
+    <t>Out-stock product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Observe Add to Cart button |
+Product </t>
+  </si>
+  <si>
+    <t>"Add to Cart button is
+ disabled "</t>
+  </si>
+  <si>
+    <t>"Addcart button disbaled for out stock product"</t>
+  </si>
+  <si>
+    <t>TS_PDP_07</t>
+  </si>
+  <si>
+    <t>FR_PDP_07</t>
+  </si>
+  <si>
+    <t>Verify product description is displayed |</t>
+  </si>
+  <si>
+    <t>1. Scroll to description section |
+Product</t>
+  </si>
+  <si>
+    <t>"Product description 
+is displayed "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Product description is displayed" </t>
+  </si>
+  <si>
+    <t>Verify product specifications are displayed |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. View specifications section |
+Product </t>
+  </si>
+  <si>
+    <t>"Product specifications 
+are displayed |</t>
+  </si>
+  <si>
+    <t>"Product specifications are displayed "</t>
   </si>
 </sst>
 </file>
@@ -996,17 +1271,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1014,6 +1280,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1625,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4571448-FDFE-4F01-A516-0ABB06952D87}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="F11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1942,7 @@
       <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
@@ -1713,7 +1986,7 @@
       <c r="J2" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="24" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -1751,7 +2024,7 @@
       <c r="J3" t="s">
         <v>238</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="24" t="s">
         <v>51</v>
       </c>
       <c r="L3" t="s">
@@ -1789,7 +2062,7 @@
       <c r="J4" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="24" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="18" t="s">
@@ -1827,7 +2100,7 @@
       <c r="J5" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="24" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="18" t="s">
@@ -1865,7 +2138,7 @@
       <c r="J6" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="24" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="18" t="s">
@@ -1903,7 +2176,7 @@
       <c r="J7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="24" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="7" t="s">
@@ -1941,7 +2214,7 @@
       <c r="J8" t="s">
         <v>243</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="24" t="s">
         <v>51</v>
       </c>
       <c r="L8" t="s">
@@ -1979,7 +2252,7 @@
       <c r="J9" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="24" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="18" t="s">
@@ -2017,7 +2290,7 @@
       <c r="J10" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="24" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="18" t="s">
@@ -2052,7 +2325,7 @@
       <c r="J11" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="24" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="18" t="s">
@@ -2090,7 +2363,7 @@
       <c r="J12" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2119,7 +2392,7 @@
       <c r="J13" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2145,7 +2418,7 @@
       <c r="I14" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2168,7 +2441,7 @@
       <c r="I15" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="K15" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2186,7 +2459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F819213-0935-4CCE-97BE-DCD2DE2E7E49}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="E12" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2278,7 +2551,7 @@
       <c r="J3" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L3" t="s">
@@ -2310,13 +2583,13 @@
       <c r="H4" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="4" t="s">
         <v>219</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L4" t="s">
@@ -2348,13 +2621,13 @@
       <c r="H5" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="4" t="s">
         <v>219</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L5" t="s">
@@ -2386,13 +2659,13 @@
       <c r="H6" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="4" t="s">
         <v>219</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L6" t="s">
@@ -2430,7 +2703,7 @@
       <c r="J7" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L7" t="s">
@@ -2462,13 +2735,13 @@
       <c r="H8" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L8" t="s">
@@ -2500,13 +2773,13 @@
       <c r="H9" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L9" t="s">
@@ -2538,13 +2811,13 @@
       <c r="H10" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L10" t="s">
@@ -2576,13 +2849,13 @@
       <c r="H11" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L11" t="s">
@@ -2617,10 +2890,10 @@
       <c r="I12" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L12" t="s">
@@ -2649,13 +2922,13 @@
       <c r="G13" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L13" t="s">
@@ -2687,13 +2960,13 @@
       <c r="H14" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L14" t="s">
@@ -2708,17 +2981,537 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB0A0B2-B5F3-4A49-A089-B3D37B5BF24D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13" style="16" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="30" style="16" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="26" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="12"/>
+    <col min="12" max="12" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="16" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA327B7F-64E2-4FE3-AD7D-3A0C5D06EFA9}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
+      <c r="A1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>252</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1534" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6BD878A-5339-4B96-9F64-21AE12ED3867}"/>
+  <xr:revisionPtr revIDLastSave="1719" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A494135-9BED-4EED-A8B8-FC0461921701}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Product_Search_Test_Cases" sheetId="5" r:id="rId5"/>
     <sheet name="Add_to_cart_Test_Cases" sheetId="6" r:id="rId6"/>
     <sheet name="Checkout_Address_Test_Cases" sheetId="8" r:id="rId7"/>
+    <sheet name="Payment_Test_Cases" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="574">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1529,12 +1530,6 @@
     <t>TC_CHK_09</t>
   </si>
   <si>
-    <t>TC_CHK_10</t>
-  </si>
-  <si>
-    <t>TC_CHK_11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify user can
  proceed to checkout </t>
   </si>
@@ -1716,6 +1711,243 @@
   </si>
   <si>
     <t>"Able to proceed to payment after slecting address</t>
+  </si>
+  <si>
+    <t>TC_PAY_01</t>
+  </si>
+  <si>
+    <t>TC_PAY_02</t>
+  </si>
+  <si>
+    <t>TC_PAY_03</t>
+  </si>
+  <si>
+    <t>TC_PAY_04</t>
+  </si>
+  <si>
+    <t>TC_PAY_05</t>
+  </si>
+  <si>
+    <t>TC_PAY_06</t>
+  </si>
+  <si>
+    <t>TC_PAY_07</t>
+  </si>
+  <si>
+    <t>TC_PAY_08</t>
+  </si>
+  <si>
+    <t>TC_PAY_09</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>FR_PAY_01</t>
+  </si>
+  <si>
+    <t>TS_PAY_01</t>
+  </si>
+  <si>
+    <t>TS_PAY_02</t>
+  </si>
+  <si>
+    <t>TS_PAY_03</t>
+  </si>
+  <si>
+    <t>TS_PAY_04</t>
+  </si>
+  <si>
+    <t>TS_PAY_05</t>
+  </si>
+  <si>
+    <t>TS_PAY_06</t>
+  </si>
+  <si>
+    <t>TS_PAY_07</t>
+  </si>
+  <si>
+    <t>User is on
+ payment page</t>
+  </si>
+  <si>
+    <t>Payment option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"All supported payment methods "
+are displayed </t>
+  </si>
+  <si>
+    <t>"All the paymet method
+ displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify available payment 
+options are displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate
+ to payment page </t>
+  </si>
+  <si>
+    <t>Verify payment using 
+valid card details |</t>
+  </si>
+  <si>
+    <t>FR_PAY_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select Card payment
+2. Enter valid card details
+3. Click Pay </t>
+  </si>
+  <si>
+    <t>Valid card detilas</t>
+  </si>
+  <si>
+    <t>"Valid card details "
+Payment completed successfully</t>
+  </si>
+  <si>
+    <t>"Payment succesfull
+ cerdit/dedit card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify error for invalid card details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User on 
+payment page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select Card payment
+2. Enter invalid card details
+3. Click Pay
+</t>
+  </si>
+  <si>
+    <t>Invalid card details |</t>
+  </si>
+  <si>
+    <t>"Payment Failure
+ message displayed"</t>
+  </si>
+  <si>
+    <t>"Invalid card details 
+messgae displayed"</t>
+  </si>
+  <si>
+    <t>FR_PAY_03</t>
+  </si>
+  <si>
+    <t>1. Select UPI payment
+2. Enter valid UPI ID
+3. Confirm payment</t>
+  </si>
+  <si>
+    <t>Valid UPI ID options</t>
+  </si>
+  <si>
+    <t>"Payment completed
+ succesfully"</t>
+  </si>
+  <si>
+    <t>"UPI ID selected succesfully</t>
+  </si>
+  <si>
+    <t>Verify error  for invalid  UPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select UPI payment
+2. Enter invalid UPI ID
+</t>
+  </si>
+  <si>
+    <t>invalid@123</t>
+  </si>
+  <si>
+    <t>"Error messgae displayed"</t>
+  </si>
+  <si>
+    <t>"Invalid upi id  
+messgae displayed"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can select Cash on Delivery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify payment using valid UPI </t>
+  </si>
+  <si>
+    <t>FR_PAY_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select COD
+2. Confirm order </t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>"Order placed succesfully"</t>
+  </si>
+  <si>
+    <t>"Order placed 
+succesfully"</t>
+  </si>
+  <si>
+    <t>Verify system handles payment failure gracefully |</t>
+  </si>
+  <si>
+    <t>FR_PAY_05</t>
+  </si>
+  <si>
+    <t>1. Attempt payment
+2. Simulate failure</t>
+  </si>
+  <si>
+    <t>Payment failure</t>
+  </si>
+  <si>
+    <t>"Failure message 
+displayed and user stays on payment page "</t>
+  </si>
+  <si>
+    <t>Verify payment success message |</t>
+  </si>
+  <si>
+    <t>FR_PAY_06</t>
+  </si>
+  <si>
+    <t>Payment completed</t>
+  </si>
+  <si>
+    <t>"Payment success
+ message displayed "</t>
+  </si>
+  <si>
+    <t>"Payment success message displayed "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Observe confirmation screen 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify payment is processed securely </t>
+  </si>
+  <si>
+    <t>FR_PAY_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Observe payment URL
+</t>
+  </si>
+  <si>
+    <t>HTTPS</t>
+  </si>
+  <si>
+    <t>"Payment page 
+uses secure HTTPS"</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +2018,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1870,6 +2102,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2212,7 +2447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD6D3BF-43B2-46AE-8869-8724C02B6152}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -4738,10 +4973,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3368E44A-C1B5-4830-AE18-E72BE3842A2B}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4810,21 +5045,21 @@
         <v>440</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>275</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -4839,27 +5074,27 @@
         <v>438</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="G3" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="I3" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="16" t="s">
@@ -4874,27 +5109,27 @@
         <v>438</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="G4" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="I4" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="16" t="s">
@@ -4909,30 +5144,30 @@
         <v>438</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>463</v>
-      </c>
       <c r="G5" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="J5" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="K5" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L5" t="s">
@@ -4947,30 +5182,30 @@
         <v>438</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="G6" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="K6" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -4985,30 +5220,30 @@
         <v>438</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="J7" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="K7" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L7" t="s">
@@ -5023,30 +5258,30 @@
         <v>438</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="K8" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L8" t="s">
@@ -5061,30 +5296,30 @@
         <v>438</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="G9" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="J9" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="K9" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L9" t="s">
@@ -5099,54 +5334,446 @@
         <v>438</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="F10" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="J10" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="K10" s="23" t="s">
         <v>51</v>
       </c>
       <c r="L10" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>450</v>
-      </c>
-      <c r="B12" t="s">
-        <v>438</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7510B7E1-8952-42B9-B5A8-7CA1E56285FB}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="16" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{E408E369-6D30-4DD5-BD68-0267936C96A9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1720" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5D0A238-87BF-4872-8AF1-D574E5D7516A}"/>
+  <xr:revisionPtr revIDLastSave="1773" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91F90952-3999-4FD6-9145-0B3D3B8500A2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Add_to_cart_Test_Cases" sheetId="6" r:id="rId6"/>
     <sheet name="Checkout_Address_Test_Cases" sheetId="8" r:id="rId7"/>
     <sheet name="Payment_Test_Cases" sheetId="9" r:id="rId8"/>
+    <sheet name="Order_Confirmation_Test_Cases" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="591">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1948,6 +1949,63 @@
   <si>
     <t>"Payment page 
 uses secure HTTPS"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_OC_01 </t>
+  </si>
+  <si>
+    <t>TC_OC_02</t>
+  </si>
+  <si>
+    <t>TC_OC_03</t>
+  </si>
+  <si>
+    <t>TC_OC_04</t>
+  </si>
+  <si>
+    <t>TC_OC_05</t>
+  </si>
+  <si>
+    <t>TC_OC_06</t>
+  </si>
+  <si>
+    <t>TC_OC_07</t>
+  </si>
+  <si>
+    <t>TC_OC_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Confirmation </t>
+  </si>
+  <si>
+    <t>FR_OC_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TS_OC_01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify order confirmation page
+ is displayed after successful payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment completed
+ successfully </t>
+  </si>
+  <si>
+    <t>1. Complete payment
+2. Observe page</t>
+  </si>
+  <si>
+    <t>Successful 
+payment</t>
+  </si>
+  <si>
+    <t>"Order confirmation 
+page displayed"</t>
+  </si>
+  <si>
+    <t>"Order placed succesfully
+ messgae displayed"</t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2102,6 +2160,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5094,7 +5155,7 @@
       <c r="J3" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="16" t="s">
@@ -5129,7 +5190,7 @@
       <c r="J4" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="16" t="s">
@@ -5374,8 +5435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7510B7E1-8952-42B9-B5A8-7CA1E56285FB}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5461,7 +5522,7 @@
       <c r="J2" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="16" t="s">
@@ -5499,7 +5560,7 @@
       <c r="J3" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="16" t="s">
@@ -5537,7 +5598,7 @@
       <c r="J4" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="16" t="s">
@@ -5575,7 +5636,7 @@
       <c r="J5" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="16" t="s">
@@ -5613,7 +5674,7 @@
       <c r="J6" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="16" t="s">
@@ -5651,7 +5712,7 @@
       <c r="J7" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="16" t="s">
@@ -5689,7 +5750,7 @@
       <c r="J8" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="16" t="s">
@@ -5724,7 +5785,7 @@
       <c r="J9" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="16" t="s">
@@ -5762,7 +5823,7 @@
       <c r="J10" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="16" t="s">
@@ -5776,4 +5837,164 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8983707B-2900-4232-B9A4-6CEF831CF204}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1773" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91F90952-3999-4FD6-9145-0B3D3B8500A2}"/>
+  <xr:revisionPtr revIDLastSave="1928" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD8404DD-AE93-43DE-83ED-E3CAEADF9CB1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="629">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1972,9 +1972,6 @@
     <t>TC_OC_07</t>
   </si>
   <si>
-    <t>TC_OC_08</t>
-  </si>
-  <si>
     <t xml:space="preserve">Order Confirmation </t>
   </si>
   <si>
@@ -2006,6 +2003,141 @@
   <si>
     <t>"Order placed succesfully
  messgae displayed"</t>
+  </si>
+  <si>
+    <t>FR_OC_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TS_OC_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order placed </t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>"Unique 
+order ID displayed "</t>
+  </si>
+  <si>
+    <t>"Unique order ID is
+generated"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify unique order
+ ID is generated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify ordered product
+ details are displayed correctly </t>
+  </si>
+  <si>
+    <t>FR_OC_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TS_OC_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. View order 
+confirmation page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. View order details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordered products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Correct product, quantity, 
+and price displayed" </t>
+  </si>
+  <si>
+    <t>"All ordered details 
+displayed"</t>
+  </si>
+  <si>
+    <t>Verify payment status 
+is displayed correctly</t>
+  </si>
+  <si>
+    <t>FR_OC_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TS_OC_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. View payment status 
+</t>
+  </si>
+  <si>
+    <t>"Payment
+ status shown as Successful"</t>
+  </si>
+  <si>
+    <t>FR_OC_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TS_OC_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify order confirmation 
+message is displayed </t>
+  </si>
+  <si>
+    <t>Order placed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Observe confirmation
+ message </t>
+  </si>
+  <si>
+    <t>"Order placed 
+successfully message displayed "</t>
+  </si>
+  <si>
+    <t>FR_OC_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TS_OC_06</t>
+  </si>
+  <si>
+    <t>User logged in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to My Orders </t>
+  </si>
+  <si>
+    <t>"Order appears 
+in My Orders list "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify confirmation 
+email/SMS is sent </t>
+  </si>
+  <si>
+    <t>FR_OC_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TS_OC_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify placed order is
+ visible in My Orders section </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Check registered email/SMS </t>
+  </si>
+  <si>
+    <t>Email/Sms</t>
+  </si>
+  <si>
+    <t>"Order confirmation 
+notification received "</t>
+  </si>
+  <si>
+    <t>"Order 
+confirmation notification received "</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2151,7 +2283,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2166,6 +2297,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3877,7 +4017,7 @@
     <col min="7" max="7" width="34.5703125" style="16" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="12"/>
     <col min="12" max="12" width="9.140625" style="16"/>
   </cols>
@@ -3898,7 +4038,7 @@
       <c r="E1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="25" t="s">
@@ -3913,7 +4053,7 @@
       <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="25" t="s">
@@ -3951,7 +4091,7 @@
       <c r="J2" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="28" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="16" t="s">
@@ -3989,7 +4129,7 @@
       <c r="J3" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="28" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="16" t="s">
@@ -4027,7 +4167,7 @@
       <c r="J4" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="28" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="16" t="s">
@@ -4065,7 +4205,7 @@
       <c r="J5" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="28" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="16" t="s">
@@ -4103,7 +4243,7 @@
       <c r="J6" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="28" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="16" t="s">
@@ -4141,7 +4281,7 @@
       <c r="J7" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="28" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="16" t="s">
@@ -4179,7 +4319,7 @@
       <c r="J8" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="28" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="16" t="s">
@@ -4217,7 +4357,7 @@
       <c r="J9" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="28" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="16" t="s">
@@ -4255,7 +4395,7 @@
       <c r="J10" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="28" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="16" t="s">
@@ -4293,7 +4433,7 @@
       <c r="J11" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="28" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="16" t="s">
@@ -4331,7 +4471,7 @@
       <c r="J12" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="28" t="s">
         <v>51</v>
       </c>
       <c r="L12" s="16" t="s">
@@ -4370,7 +4510,7 @@
       <c r="A1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
@@ -4382,7 +4522,7 @@
       <c r="E1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="25" t="s">
@@ -4404,29 +4544,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" t="s">
         <v>328</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" t="s">
         <v>335</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" t="s">
         <v>336</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" t="s">
         <v>338</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -4449,22 +4589,22 @@
       <c r="B3" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" t="s">
         <v>341</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" t="s">
         <v>345</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" t="s">
         <v>336</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" t="s">
         <v>338</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -4487,16 +4627,16 @@
       <c r="B4" t="s">
         <v>326</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" t="s">
         <v>342</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" t="s">
         <v>346</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" t="s">
         <v>353</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -4525,16 +4665,16 @@
       <c r="B5" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" t="s">
         <v>346</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" t="s">
         <v>353</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -4563,16 +4703,16 @@
       <c r="B6" t="s">
         <v>326</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" t="s">
         <v>342</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" t="s">
         <v>346</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" t="s">
         <v>372</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -4601,10 +4741,10 @@
       <c r="B7" t="s">
         <v>326</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" t="s">
         <v>347</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -4639,16 +4779,16 @@
       <c r="B8" t="s">
         <v>326</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" t="s">
         <v>344</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" t="s">
         <v>348</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" t="s">
         <v>336</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -4702,7 +4842,7 @@
       <c r="A1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
@@ -4714,7 +4854,7 @@
       <c r="E1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="25" t="s">
@@ -5058,7 +5198,7 @@
       <c r="A1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
@@ -5070,7 +5210,7 @@
       <c r="E1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="25" t="s">
@@ -5155,7 +5295,7 @@
       <c r="J3" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="16" t="s">
@@ -5190,7 +5330,7 @@
       <c r="J4" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="16" t="s">
@@ -5446,7 +5586,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="23.140625" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
     <col min="9" max="9" width="25.140625" style="16" customWidth="1"/>
@@ -5457,7 +5597,7 @@
       <c r="A1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
@@ -5522,7 +5662,7 @@
       <c r="J2" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="16" t="s">
@@ -5560,7 +5700,7 @@
       <c r="J3" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="16" t="s">
@@ -5598,7 +5738,7 @@
       <c r="J4" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="16" t="s">
@@ -5636,14 +5776,14 @@
       <c r="J5" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>509</v>
       </c>
@@ -5674,7 +5814,7 @@
       <c r="J6" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="16" t="s">
@@ -5712,14 +5852,14 @@
       <c r="J7" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="16" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>511</v>
       </c>
@@ -5750,7 +5890,7 @@
       <c r="J8" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="16" t="s">
@@ -5785,7 +5925,7 @@
       <c r="J9" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="16" t="s">
@@ -5823,7 +5963,7 @@
       <c r="J10" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="30" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="16" t="s">
@@ -5841,31 +5981,33 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8983707B-2900-4232-B9A4-6CEF831CF204}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="16" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="17" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="14"/>
+    <col min="12" max="12" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
@@ -5874,123 +6016,295 @@
       <c r="D1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>574</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>588</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="J2" s="29" t="s">
         <v>589</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="K2" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>575</v>
-      </c>
-      <c r="B3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="B4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>604</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="B5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="B6" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>612</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="B7" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="B8" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="B9" t="s">
-        <v>582</v>
+      <c r="C8" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>621</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>627</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1928" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD8404DD-AE93-43DE-83ED-E3CAEADF9CB1}"/>
+  <xr:revisionPtr revIDLastSave="2072" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5613AF84-ACCA-4DB3-916E-06F6F29FD7F1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Checkout_Address_Test_Cases" sheetId="8" r:id="rId7"/>
     <sheet name="Payment_Test_Cases" sheetId="9" r:id="rId8"/>
     <sheet name="Order_Confirmation_Test_Cases" sheetId="10" r:id="rId9"/>
+    <sheet name="Order_Tracking_Cancellation_Tes" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="685">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2138,6 +2139,195 @@
   <si>
     <t>"Order 
 confirmation notification received "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_OT_01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_OT_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TS_OT_01 </t>
+  </si>
+  <si>
+    <t>TC_OT_02</t>
+  </si>
+  <si>
+    <t>TC_OT_03</t>
+  </si>
+  <si>
+    <t>TC_OT_04</t>
+  </si>
+  <si>
+    <t>TC_OT_05</t>
+  </si>
+  <si>
+    <t>TC_OT_06</t>
+  </si>
+  <si>
+    <t>TC_OT_07</t>
+  </si>
+  <si>
+    <t>Order Tracking &amp; Cancellation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_OT_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_OT_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_OT_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_OT_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_OT_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_OT_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TS_OT_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TS_OT_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TS_OT_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TS_OT_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TS_OT_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TS_OT_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can
+ view order tracking details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User logged in and
+ order placed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to My Orders
+2. Select an order
+3. Click Track </t>
+  </si>
+  <si>
+    <t>Placed Order</t>
+  </si>
+  <si>
+    <t>"Order tracking details 
+displayed "</t>
+  </si>
+  <si>
+    <t>"Order tracking 
+details displayed"</t>
+  </si>
+  <si>
+    <t>Verify order status
+ is updated correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Track order 
+at different stages </t>
+  </si>
+  <si>
+    <t>"Order status updates(placed/shipped/Delivered)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user can cancel 
+order before shipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to My Orders
+2. Select order
+3. Click Cancel Order </t>
+  </si>
+  <si>
+    <t>"Order Cancelled successfully"</t>
+  </si>
+  <si>
+    <t>"Order status updated"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify cancel option 
+is disabled after order is shipped </t>
+  </si>
+  <si>
+    <t>Order status is shipped</t>
+  </si>
+  <si>
+    <t>Shipped order</t>
+  </si>
+  <si>
+    <t>"Cancel option
+ disabled or not displayed "</t>
+  </si>
+  <si>
+    <t>"Cancel option
+ disabled after shipment"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify cancellation 
+confirmation message is displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order cancelled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Observe confirmation 
+message </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelled order </t>
+  </si>
+  <si>
+    <t>"Order cancellation 
+confirmation displayed "</t>
+  </si>
+  <si>
+    <t>"Cancellation 
+confirmation message displayed"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify refund status is displayed for cancelled order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order cancelled
+ and prepaid </t>
+  </si>
+  <si>
+    <t>1. View order details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelled 
+prepaid order </t>
+  </si>
+  <si>
+    <t>"Refund status displayed 
+correctly "</t>
+  </si>
+  <si>
+    <t>Verify order status shows Cancelled</t>
+  </si>
+  <si>
+    <t>"Order status displayed as Cancelled "</t>
+  </si>
+  <si>
+    <t>1. View order status</t>
+  </si>
+  <si>
+    <t>"Order status after cancellation"</t>
+  </si>
+  <si>
+    <t>"Refund status displayed"</t>
   </si>
 </sst>
 </file>
@@ -2913,6 +3103,338 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6608D6B3-3DD9-45A4-8782-01785087947E}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>677</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B8" t="s">
+        <v>638</v>
+      </c>
+      <c r="C8" t="s">
+        <v>644</v>
+      </c>
+      <c r="D8" t="s">
+        <v>650</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F8" t="s">
+        <v>670</v>
+      </c>
+      <c r="G8" t="s">
+        <v>682</v>
+      </c>
+      <c r="H8" t="s">
+        <v>672</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="J8" t="s">
+        <v>683</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4571448-FDFE-4F01-A516-0ABB06952D87}">
   <dimension ref="A1:L15"/>
@@ -5983,8 +6505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8983707B-2900-4232-B9A4-6CEF831CF204}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2522" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{960E541B-DFE8-443B-847E-A4F0C54E908C}"/>
+  <xr:revisionPtr revIDLastSave="2526" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFB94BF3-CD5A-4E01-AAB7-569EC1292F3C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="769">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -898,6 +898,9 @@
 is displayed </t>
   </si>
   <si>
+    <t>FR_PDP_04</t>
+  </si>
+  <si>
     <t>FR_PDP_05</t>
   </si>
   <si>
@@ -945,6 +948,9 @@
   </si>
   <si>
     <t>TS_PDP_07</t>
+  </si>
+  <si>
+    <t>FR_PDP_07</t>
   </si>
   <si>
     <t>Verify product description is displayed |</t>
@@ -2588,11 +2594,11 @@
     <t>Product page loaded sucessfully</t>
   </si>
   <si>
-    <t>FR_PDP_03</t>
-  </si>
-  <si>
     <t>1. Select quantity from dropdown 
 Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FR_PDP_03</t>
   </si>
 </sst>
 </file>
@@ -3467,34 +3473,34 @@
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>51</v>
@@ -3505,34 +3511,34 @@
     </row>
     <row r="3" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>51</v>
@@ -3543,34 +3549,34 @@
     </row>
     <row r="4" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>51</v>
@@ -3581,34 +3587,34 @@
     </row>
     <row r="5" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K5" s="35" t="s">
         <v>51</v>
@@ -3619,34 +3625,34 @@
     </row>
     <row r="6" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="K6" s="35" t="s">
         <v>51</v>
@@ -3657,34 +3663,34 @@
     </row>
     <row r="7" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="K7" s="35" t="s">
         <v>51</v>
@@ -3695,34 +3701,34 @@
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B8" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F8" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="J8" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="K8" s="35" t="s">
         <v>51</v>
@@ -3798,34 +3804,34 @@
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>51</v>
@@ -3836,34 +3842,34 @@
     </row>
     <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>51</v>
@@ -3874,34 +3880,34 @@
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>51</v>
@@ -3912,34 +3918,34 @@
     </row>
     <row r="5" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>583</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="K5" s="28" t="s">
         <v>51</v>
@@ -3950,34 +3956,34 @@
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H6" s="31" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="K6" s="28" t="s">
         <v>51</v>
@@ -3988,34 +3994,34 @@
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="K7" s="28" t="s">
         <v>51</v>
@@ -4026,72 +4032,72 @@
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>51</v>
@@ -4102,34 +4108,34 @@
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="K10" s="36" t="s">
         <v>51</v>
@@ -4410,7 +4416,7 @@
         <v>181</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>151</v>
@@ -4448,7 +4454,7 @@
         <v>181</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>152</v>
@@ -4469,13 +4475,13 @@
         <v>216</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="K9" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="K9" s="39" t="s">
-        <v>617</v>
-      </c>
       <c r="L9" s="15" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -4486,7 +4492,7 @@
         <v>181</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>153</v>
@@ -4524,7 +4530,7 @@
         <v>181</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>154</v>
@@ -4562,7 +4568,7 @@
         <v>181</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>155</v>
@@ -4600,7 +4606,7 @@
         <v>181</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>156</v>
@@ -4635,7 +4641,7 @@
         <v>181</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>157</v>
@@ -4762,7 +4768,7 @@
         <v>66</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>51</v>
@@ -4800,7 +4806,7 @@
         <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>51</v>
@@ -4838,7 +4844,7 @@
         <v>72</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>51</v>
@@ -4876,7 +4882,7 @@
         <v>116</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>51</v>
@@ -4914,7 +4920,7 @@
         <v>112</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>51</v>
@@ -4952,7 +4958,7 @@
         <v>83</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>51</v>
@@ -4990,7 +4996,7 @@
         <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K8" s="22" t="s">
         <v>51</v>
@@ -5028,7 +5034,7 @@
         <v>121</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>51</v>
@@ -5066,7 +5072,7 @@
         <v>126</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>51</v>
@@ -5098,10 +5104,10 @@
         <v>128</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>51</v>
@@ -5139,18 +5145,18 @@
         <v>132</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>58</v>
@@ -5177,7 +5183,7 @@
         <v>132</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>51</v>
@@ -5185,7 +5191,7 @@
     </row>
     <row r="14" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>58</v>
@@ -5217,7 +5223,7 @@
     </row>
     <row r="15" spans="1:12" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>58</v>
@@ -5238,7 +5244,7 @@
         <v>142</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="K15" s="44" t="s">
         <v>51</v>
@@ -5258,8 +5264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB0A0B2-B5F3-4A49-A089-B3D37B5BF24D}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A9" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5330,7 +5336,7 @@
         <v>229</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>232</v>
@@ -5339,13 +5345,13 @@
         <v>231</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>51</v>
@@ -5377,13 +5383,13 @@
         <v>231</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="K3" s="26"/>
     </row>
@@ -5413,16 +5419,16 @@
         <v>247</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -5451,10 +5457,10 @@
         <v>247</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>51</v>
@@ -5471,7 +5477,7 @@
         <v>227</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>228</v>
+        <v>768</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>250</v>
@@ -5509,7 +5515,7 @@
         <v>227</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>765</v>
+        <v>258</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>254</v>
@@ -5530,7 +5536,7 @@
         <v>257</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>51</v>
@@ -5547,34 +5553,34 @@
         <v>227</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>232</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>247</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5585,28 +5591,28 @@
         <v>227</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>232</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>264</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>51</v>
@@ -5623,28 +5629,28 @@
         <v>227</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>232</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>247</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="K10" s="26" t="s">
         <v>51</v>
@@ -5661,28 +5667,28 @@
         <v>227</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>232</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>270</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>51</v>
@@ -5699,28 +5705,28 @@
         <v>227</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>232</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>247</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>51</v>
@@ -5731,34 +5737,34 @@
     </row>
     <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>227</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>232</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>247</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>51</v>
@@ -5777,8 +5783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA327B7F-64E2-4FE3-AD7D-3A0C5D06EFA9}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5835,34 +5841,34 @@
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>51</v>
@@ -5873,34 +5879,34 @@
     </row>
     <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>51</v>
@@ -5911,72 +5917,72 @@
     </row>
     <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="H4" s="15" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>51</v>
@@ -5987,34 +5993,34 @@
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>51</v>
@@ -6025,34 +6031,34 @@
     </row>
     <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>51</v>
@@ -6063,34 +6069,34 @@
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H8" s="6">
         <v>1234</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>51</v>
@@ -6167,32 +6173,32 @@
     </row>
     <row r="2" spans="1:12" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>51</v>
@@ -6203,34 +6209,34 @@
     </row>
     <row r="3" spans="1:12" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>317</v>
-      </c>
       <c r="C3" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>51</v>
@@ -6241,34 +6247,34 @@
     </row>
     <row r="4" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="H4" s="15" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>51</v>
@@ -6279,34 +6285,34 @@
     </row>
     <row r="5" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>51</v>
@@ -6317,31 +6323,31 @@
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>51</v>
@@ -6352,66 +6358,66 @@
     </row>
     <row r="7" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>51</v>
@@ -6422,31 +6428,31 @@
     </row>
     <row r="9" spans="1:12" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>51</v>
@@ -6523,31 +6529,31 @@
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>247</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>51</v>
@@ -6558,31 +6564,31 @@
     </row>
     <row r="3" spans="1:12" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>51</v>
@@ -6593,31 +6599,31 @@
     </row>
     <row r="4" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>51</v>
@@ -6628,34 +6634,34 @@
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="K5" s="21" t="s">
         <v>51</v>
@@ -6666,34 +6672,34 @@
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>51</v>
@@ -6704,34 +6710,34 @@
     </row>
     <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>51</v>
@@ -6742,34 +6748,34 @@
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>392</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>51</v>
@@ -6780,34 +6786,34 @@
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="K9" s="21" t="s">
         <v>51</v>
@@ -6818,34 +6824,34 @@
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>51</v>
@@ -6922,34 +6928,34 @@
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>433</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>434</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>51</v>
@@ -6960,34 +6966,34 @@
     </row>
     <row r="3" spans="1:12" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>51</v>
@@ -6998,34 +7004,34 @@
     </row>
     <row r="4" spans="1:12" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>51</v>
@@ -7036,34 +7042,34 @@
     </row>
     <row r="5" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K5" s="28" t="s">
         <v>51</v>
@@ -7074,34 +7080,34 @@
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K6" s="28" t="s">
         <v>51</v>
@@ -7112,34 +7118,34 @@
     </row>
     <row r="7" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="K7" s="28" t="s">
         <v>51</v>
@@ -7150,34 +7156,34 @@
     </row>
     <row r="8" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>51</v>
@@ -7188,31 +7194,31 @@
     </row>
     <row r="9" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>51</v>
@@ -7223,34 +7229,34 @@
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K10" s="28" t="s">
         <v>51</v>
@@ -7332,34 +7338,34 @@
     </row>
     <row r="2" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="K2" s="33" t="s">
         <v>51</v>
@@ -7370,34 +7376,34 @@
     </row>
     <row r="3" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E3" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>484</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K3" s="33" t="s">
         <v>51</v>
@@ -7408,34 +7414,34 @@
     </row>
     <row r="4" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>489</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>487</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="K4" s="33" t="s">
         <v>51</v>
@@ -7446,34 +7452,34 @@
     </row>
     <row r="5" spans="1:12" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>495</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>493</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>51</v>
@@ -7484,34 +7490,34 @@
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>51</v>
@@ -7522,34 +7528,34 @@
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="K7" s="33" t="s">
         <v>51</v>
@@ -7560,34 +7566,34 @@
     </row>
     <row r="8" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>508</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>506</v>
-      </c>
       <c r="F8" s="15" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="K8" s="33" t="s">
         <v>51</v>

--- a/Test-Cases.xlsx
+++ b/Test-Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2526" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFB94BF3-CD5A-4E01-AAB7-569EC1292F3C}"/>
+  <xr:revisionPtr revIDLastSave="2553" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE41B572-1591-4C98-951D-58EF7B518A7C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="10" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
     <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="771">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1513,9 +1513,6 @@
 </t>
   </si>
   <si>
-    <t>Invalid card details |</t>
-  </si>
-  <si>
     <t>FR_PAY_03</t>
   </si>
   <si>
@@ -1655,10 +1652,6 @@
  ID is generated </t>
   </si>
   <si>
-    <t xml:space="preserve">Verify ordered product
- details are displayed correctly </t>
-  </si>
-  <si>
     <t>FR_OC_03</t>
   </si>
   <si>
@@ -1783,9 +1776,6 @@
     <t xml:space="preserve"> FR_OT_06</t>
   </si>
   <si>
-    <t xml:space="preserve"> FR_OT_07</t>
-  </si>
-  <si>
     <t xml:space="preserve"> TS_OT_02</t>
   </si>
   <si>
@@ -1799,9 +1789,6 @@
   </si>
   <si>
     <t xml:space="preserve"> TS_OT_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TS_OT_07</t>
   </si>
   <si>
     <t xml:space="preserve">Verify user can
@@ -2356,10 +2343,6 @@
 are displayed </t>
   </si>
   <si>
-    <t>All the paymet method
- displayed</t>
-  </si>
-  <si>
     <t>Valid card details 
 Payment completed successfully</t>
   </si>
@@ -2599,6 +2582,30 @@
   </si>
   <si>
     <t xml:space="preserve"> FR_PDP_03</t>
+  </si>
+  <si>
+    <t>All supported payment methods (Card, UPI, COD) should be displayed
+ displayed</t>
+  </si>
+  <si>
+    <t>TC_PAY_10</t>
+  </si>
+  <si>
+    <t>Verify user can retry payment 
+after failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User remains on payment page and can retry payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User is able to remain on payment page and can retry payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid card details </t>
+  </si>
+  <si>
+    <t>Verify product name, quantity, price, 
+and total amount are displayed correctly</t>
   </si>
 </sst>
 </file>
@@ -2675,7 +2682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2798,7 +2805,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3415,8 +3421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6608D6B3-3DD9-45A4-8782-01785087947E}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A4" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3473,34 +3479,34 @@
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>516</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>51</v>
@@ -3511,34 +3517,34 @@
     </row>
     <row r="3" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>51</v>
@@ -3549,34 +3555,34 @@
     </row>
     <row r="4" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>525</v>
-      </c>
       <c r="D4" s="15" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="H4" s="15" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>51</v>
@@ -3587,34 +3593,34 @@
     </row>
     <row r="5" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="K5" s="35" t="s">
         <v>51</v>
@@ -3625,34 +3631,34 @@
     </row>
     <row r="6" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="K6" s="35" t="s">
         <v>51</v>
@@ -3663,34 +3669,34 @@
     </row>
     <row r="7" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>523</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="K7" s="35" t="s">
         <v>51</v>
@@ -3701,34 +3707,34 @@
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B8" t="s">
-        <v>523</v>
-      </c>
-      <c r="C8" t="s">
-        <v>529</v>
-      </c>
-      <c r="D8" t="s">
-        <v>535</v>
+        <v>521</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>531</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G8" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="J8" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="K8" s="35" t="s">
         <v>51</v>
@@ -3747,7 +3753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBB9E62-98BC-4EF8-AD74-BDAD31C3DFDF}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -3762,6 +3768,7 @@
     <col min="7" max="7" width="30.140625" style="10" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" style="31" customWidth="1"/>
     <col min="9" max="10" width="16" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -3804,34 +3811,34 @@
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="G2" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="H2" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>564</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>51</v>
@@ -3842,34 +3849,34 @@
     </row>
     <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>51</v>
@@ -3880,34 +3887,34 @@
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="F4" t="s">
+        <v>573</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="H4" s="31" t="s">
         <v>575</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="F4" t="s">
-        <v>577</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>579</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>51</v>
@@ -3918,34 +3925,34 @@
     </row>
     <row r="5" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="H5" s="31" t="s">
         <v>581</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>585</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="K5" s="28" t="s">
         <v>51</v>
@@ -3956,34 +3963,34 @@
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H6" s="31" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="K6" s="28" t="s">
         <v>51</v>
@@ -3994,34 +4001,34 @@
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="H7" s="31" t="s">
         <v>591</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>595</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="K7" s="28" t="s">
         <v>51</v>
@@ -4032,72 +4039,72 @@
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="E8" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="G8" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="H8" s="31" t="s">
         <v>600</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>604</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="G9" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>316</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>51</v>
@@ -4108,34 +4115,34 @@
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="H10" s="29" t="s">
         <v>614</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>618</v>
-      </c>
       <c r="I10" s="29" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="K10" s="36" t="s">
         <v>51</v>
@@ -4416,7 +4423,7 @@
         <v>181</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>151</v>
@@ -4454,7 +4461,7 @@
         <v>181</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>152</v>
@@ -4475,13 +4482,13 @@
         <v>216</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -4492,7 +4499,7 @@
         <v>181</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>153</v>
@@ -4530,7 +4537,7 @@
         <v>181</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>154</v>
@@ -4568,7 +4575,7 @@
         <v>181</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>155</v>
@@ -4606,7 +4613,7 @@
         <v>181</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>156</v>
@@ -4641,7 +4648,7 @@
         <v>181</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>157</v>
@@ -4768,7 +4775,7 @@
         <v>66</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>51</v>
@@ -4806,7 +4813,7 @@
         <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>51</v>
@@ -4844,7 +4851,7 @@
         <v>72</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>51</v>
@@ -4882,7 +4889,7 @@
         <v>116</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>51</v>
@@ -4920,7 +4927,7 @@
         <v>112</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>51</v>
@@ -4958,7 +4965,7 @@
         <v>83</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>51</v>
@@ -4996,7 +5003,7 @@
         <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K8" s="22" t="s">
         <v>51</v>
@@ -5034,7 +5041,7 @@
         <v>121</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>51</v>
@@ -5072,7 +5079,7 @@
         <v>126</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>51</v>
@@ -5104,10 +5111,10 @@
         <v>128</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>51</v>
@@ -5145,18 +5152,18 @@
         <v>132</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>58</v>
@@ -5183,7 +5190,7 @@
         <v>132</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>51</v>
@@ -5191,7 +5198,7 @@
     </row>
     <row r="14" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>58</v>
@@ -5221,14 +5228,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>763</v>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>758</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -5237,16 +5244,16 @@
       <c r="E15" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="42" t="s">
         <v>64</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="42" t="s">
-        <v>759</v>
-      </c>
-      <c r="K15" s="44" t="s">
+      <c r="I15" t="s">
+        <v>754</v>
+      </c>
+      <c r="K15" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5336,7 +5343,7 @@
         <v>229</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>232</v>
@@ -5348,10 +5355,10 @@
         <v>305</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>51</v>
@@ -5386,10 +5393,10 @@
         <v>305</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="K3" s="26"/>
     </row>
@@ -5419,16 +5426,16 @@
         <v>247</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -5457,10 +5464,10 @@
         <v>247</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>51</v>
@@ -5477,7 +5484,7 @@
         <v>227</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>250</v>
@@ -5536,7 +5543,7 @@
         <v>257</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>51</v>
@@ -5565,16 +5572,16 @@
         <v>232</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>247</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>51</v>
@@ -5609,10 +5616,10 @@
         <v>265</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>51</v>
@@ -5647,10 +5654,10 @@
         <v>247</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="K10" s="26" t="s">
         <v>51</v>
@@ -5685,10 +5692,10 @@
         <v>271</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>51</v>
@@ -5723,10 +5730,10 @@
         <v>247</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>51</v>
@@ -5737,7 +5744,7 @@
     </row>
     <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>227</v>
@@ -5761,10 +5768,10 @@
         <v>247</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>51</v>
@@ -5783,8 +5790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA327B7F-64E2-4FE3-AD7D-3A0C5D06EFA9}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5865,10 +5872,10 @@
         <v>292</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>51</v>
@@ -5903,10 +5910,10 @@
         <v>292</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>51</v>
@@ -5941,16 +5948,16 @@
         <v>305</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -5979,10 +5986,10 @@
         <v>309</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>51</v>
@@ -6017,10 +6024,10 @@
         <v>318</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>51</v>
@@ -6029,7 +6036,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>287</v>
       </c>
@@ -6055,10 +6062,10 @@
         <v>305</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>51</v>
@@ -6093,10 +6100,10 @@
         <v>1234</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>51</v>
@@ -6115,8 +6122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FD55CB-095F-4EA1-B070-8C6158A78662}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6195,10 +6202,10 @@
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>51</v>
@@ -6233,10 +6240,10 @@
         <v>338</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>51</v>
@@ -6271,10 +6278,10 @@
         <v>342</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>51</v>
@@ -6309,10 +6316,10 @@
         <v>346</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>51</v>
@@ -6344,10 +6351,10 @@
         <v>350</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>51</v>
@@ -6379,16 +6386,16 @@
         <v>351</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K7" s="38" t="s">
+        <v>615</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -6414,10 +6421,10 @@
         <v>360</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>51</v>
@@ -6449,10 +6456,10 @@
         <v>364</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>51</v>
@@ -6471,8 +6478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3368E44A-C1B5-4830-AE18-E72BE3842A2B}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6553,7 +6560,7 @@
         <v>379</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>51</v>
@@ -6585,10 +6592,10 @@
         <v>383</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>51</v>
@@ -6620,10 +6627,10 @@
         <v>387</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>51</v>
@@ -6658,10 +6665,10 @@
         <v>389</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="K5" s="21" t="s">
         <v>51</v>
@@ -6696,10 +6703,10 @@
         <v>394</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>51</v>
@@ -6734,10 +6741,10 @@
         <v>398</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>51</v>
@@ -6772,10 +6779,10 @@
         <v>394</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>51</v>
@@ -6810,10 +6817,10 @@
         <v>405</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="K9" s="21" t="s">
         <v>51</v>
@@ -6848,10 +6855,10 @@
         <v>416</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>51</v>
@@ -6868,10 +6875,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7510B7E1-8952-42B9-B5A8-7CA1E56285FB}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6926,7 +6933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>417</v>
       </c>
@@ -6952,10 +6959,10 @@
         <v>436</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>701</v>
+        <v>764</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>51</v>
@@ -6990,10 +6997,10 @@
         <v>442</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>51</v>
@@ -7025,13 +7032,13 @@
         <v>445</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>446</v>
+        <v>769</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>51</v>
@@ -7048,28 +7055,28 @@
         <v>426</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>430</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>444</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>449</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="K5" s="28" t="s">
         <v>51</v>
@@ -7086,28 +7093,28 @@
         <v>426</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>430</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>444</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>452</v>
-      </c>
       <c r="I6" s="15" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="K6" s="28" t="s">
         <v>51</v>
@@ -7124,28 +7131,28 @@
         <v>426</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>431</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>444</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>457</v>
-      </c>
       <c r="I7" s="15" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="K7" s="28" t="s">
         <v>51</v>
@@ -7162,28 +7169,28 @@
         <v>426</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>432</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>461</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>51</v>
@@ -7200,25 +7207,25 @@
         <v>426</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>433</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>51</v>
@@ -7235,33 +7242,71 @@
         <v>426</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>434</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>444</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>469</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="K10" s="28" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>765</v>
+      </c>
+      <c r="B11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7278,8 +7323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8983707B-2900-4232-B9A4-6CEF831CF204}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7288,7 +7333,7 @@
     <col min="2" max="2" width="18.85546875" style="15" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="17" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="15" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" style="17" customWidth="1"/>
     <col min="8" max="8" width="17" style="13" bestFit="1" customWidth="1"/>
@@ -7311,7 +7356,7 @@
       <c r="D1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="25" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="23" t="s">
@@ -7338,72 +7383,72 @@
     </row>
     <row r="2" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>480</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="H2" s="27" t="s">
+      <c r="B3" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>716</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>717</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>487</v>
-      </c>
       <c r="I3" s="27" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="K3" s="33" t="s">
         <v>51</v>
@@ -7414,34 +7459,34 @@
     </row>
     <row r="4" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>770</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>489</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>493</v>
-      </c>
       <c r="H4" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="K4" s="33" t="s">
         <v>51</v>
@@ -7452,34 +7497,34 @@
     </row>
     <row r="5" spans="1:12" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C5" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>497</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>495</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>426</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>51</v>
@@ -7490,34 +7535,34 @@
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="G6" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>503</v>
-      </c>
       <c r="H6" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>51</v>
@@ -7528,34 +7573,34 @@
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="G7" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>507</v>
-      </c>
       <c r="H7" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="K7" s="33" t="s">
         <v>51</v>
@@ -7566,34 +7611,34 @@
     </row>
     <row r="8" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>477</v>
-      </c>
       <c r="C8" s="13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>508</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>512</v>
-      </c>
       <c r="H8" s="13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="K8" s="33" t="s">
         <v>51</v>
